--- a/table/wilcox/env_wilcox_table.xlsx
+++ b/table/wilcox/env_wilcox_table.xlsx
@@ -413,12 +413,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E2">
@@ -447,12 +447,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E3">
@@ -481,12 +481,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E4">
@@ -515,12 +515,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E5">
@@ -549,12 +549,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E6">
@@ -583,12 +583,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E7">
@@ -617,12 +617,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E8">
@@ -651,12 +651,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E9">
@@ -685,12 +685,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E10">
@@ -719,12 +719,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E11">
@@ -753,12 +753,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E12">
@@ -787,12 +787,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E13">
@@ -821,12 +821,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E14">
@@ -855,12 +855,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E15">
@@ -889,12 +889,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E16">
@@ -923,12 +923,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E17">
@@ -957,12 +957,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E18">
@@ -991,12 +991,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E19">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E20">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E21">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E2">
@@ -1182,12 +1182,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E3">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E4">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E5">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E6">
@@ -1318,12 +1318,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E7">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="E8">

--- a/table/wilcox/env_wilcox_table.xlsx
+++ b/table/wilcox/env_wilcox_table.xlsx
@@ -403,7 +403,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -428,16 +428,16 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>0.00433</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -462,16 +462,16 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>0.12</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>0.429</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>delta13C</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -564,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>0.0173</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Fluorescence</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -666,16 +666,16 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>0.792</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fluorescence</t>
+          <t>Oxygen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -700,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0.662</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oxygen</t>
+          <t>Porosity</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -734,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>0.00433</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Porosity</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -768,16 +768,16 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>0.126</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>Sand</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -802,16 +802,16 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>0.429</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sand</t>
+          <t>SigmaTheta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -836,16 +836,16 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>0.9270000000000001</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SigmaTheta</t>
+          <t>Silt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -870,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0.429</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Silt</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -904,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>TOC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,16 +938,16 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>0.429</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -972,16 +972,16 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TOC</t>
+          <t>Transmission</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1006,16 +1006,16 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>0.662</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Transmission</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1040,16 +1040,16 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>0.0303</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>delta13C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1074,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.126</v>
+        <v>0.0173</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1138,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chla</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1163,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>0.00433</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1197,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>0.429</v>
+        <v>0.00433</v>
       </c>
     </row>
     <row r="4">
@@ -1308,7 +1308,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>TOC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,16 +1333,16 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>0.429</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TOC</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1367,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>0.662</v>
+        <v>0.429</v>
       </c>
     </row>
   </sheetData>
